--- a/app/config/tables/femaleClients/forms/femaleClients/femaleClients.xlsx
+++ b/app/config/tables/femaleClients/forms/femaleClients/femaleClients.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="517">
   <si>
     <t>type</t>
   </si>
@@ -39,9 +39,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -51,25 +48,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>media::image</t>
   </si>
   <si>
     <t>Client ID:</t>
@@ -133,9 +112,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -146,9 +122,6 @@
   </si>
   <si>
     <t>survey</t>
-  </si>
-  <si>
-    <t>display.hint</t>
   </si>
   <si>
     <t>text</t>
@@ -1603,12 +1576,21 @@
   </si>
   <si>
     <t>[{"mValue":"synced","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"syncStateSynced","mForeground":-16777216,"mBackground":-1},{"mValue":"synced_pending_files","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"syncStateSyncedPendingFiles","mForeground":-16777216,"mBackground":-1},{"mValue":"new_row","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"defaultRule_syncStateNewRow","mForeground":-16777216,"mBackground":-16711936},{"mValue":"changed","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"defaultRule_syncStateChanged","mForeground":-16777216,"mBackground":-935891},{"mValue":"in_conflict","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"defaultRule_syncStateInConflict","mForeground":-16777216,"mBackground":-65536},{"mValue":"deleted","mElementKey":"_sync_state","mOperator":"EQUAL","mId":"defaultRule_syncStateDeleted","mForeground":-16777216,"mBackground":-12303292}]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2284,7 +2266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2349,13 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3307,13 +3283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3324,2136 +3300,2090 @@
     <col min="4" max="4" width="23" style="11" customWidth="1"/>
     <col min="5" max="5" width="63" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="3"/>
-    <col min="9" max="9" width="10.77734375" style="13"/>
-    <col min="10" max="10" width="10.77734375" style="3"/>
-    <col min="11" max="11" width="15" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="3"/>
-    <col min="13" max="13" width="28" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.77734375" style="3"/>
+    <col min="7" max="7" width="10.77734375" style="3"/>
+    <col min="8" max="8" width="10.77734375" style="13"/>
+    <col min="9" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="46" t="b">
+      <c r="H4" s="42" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" s="19" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" s="19" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="43" t="b">
+        <v>43</v>
+      </c>
+      <c r="H9" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:17" s="19" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="78.55" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="43" t="b">
+        <v>48</v>
+      </c>
+      <c r="H11" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="43" t="b">
+        <v>51</v>
+      </c>
+      <c r="H12" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="21" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:17" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="16"/>
       <c r="D14" s="21"/>
-      <c r="I14" s="43"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="43"/>
-    </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="21"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="42" t="b">
+        <v>77</v>
+      </c>
+      <c r="H23" s="40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="94.25" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="43" t="b">
+        <v>80</v>
+      </c>
+      <c r="H24" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="43"/>
-    </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H30" s="41"/>
+    </row>
+    <row r="31" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="41"/>
+    </row>
+    <row r="32" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="43"/>
-    </row>
-    <row r="33" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="41"/>
+    </row>
+    <row r="33" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="2:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="2:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="2:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="F36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" spans="2:16" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="43"/>
-    </row>
-    <row r="35" spans="2:16" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="43"/>
-    </row>
-    <row r="36" spans="2:16" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B36" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="43"/>
-    </row>
-    <row r="37" spans="2:16" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="H36" s="41"/>
+    </row>
+    <row r="37" spans="2:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="42" t="b">
+      <c r="E38" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="42"/>
-    </row>
-    <row r="40" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="42"/>
-    </row>
-    <row r="41" spans="2:16" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="2:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="25"/>
       <c r="D41" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="43"/>
-    </row>
-    <row r="42" spans="2:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="H41" s="41"/>
+    </row>
+    <row r="42" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="20"/>
       <c r="C42" s="16"/>
       <c r="D42" s="21"/>
-      <c r="I42" s="43"/>
-    </row>
-    <row r="43" spans="2:16" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="H42" s="41"/>
+    </row>
+    <row r="43" spans="2:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="43"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="H43" s="41"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="20"/>
       <c r="C44" s="16"/>
       <c r="D44" s="21"/>
-      <c r="I44" s="44"/>
-    </row>
-    <row r="45" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H45" s="43"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="44"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H46" s="42"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="44"/>
-    </row>
-    <row r="48" spans="2:16" ht="47.15" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="H47" s="42"/>
+    </row>
+    <row r="48" spans="2:9" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="21" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="46" t="b">
+      <c r="H48" s="44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="29" t="s">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" s="45"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H50" s="45"/>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="45"/>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27"/>
+      <c r="H52" s="45"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I49" s="47"/>
-    </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="29" t="s">
+      <c r="E54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="H54" s="45"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="I50" s="47"/>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="31" t="s">
+      <c r="E55" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="H56" s="45"/>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I51" s="47"/>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="29"/>
-      <c r="I52" s="47"/>
-    </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
+      <c r="H57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="29" t="s">
+      <c r="D58" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I53" s="47"/>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="29" t="s">
+      <c r="H58" s="45"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I54" s="47"/>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="29" t="s">
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D60" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="I55" s="47"/>
-    </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="29"/>
-      <c r="I56" s="47"/>
-    </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="29" t="s">
+      <c r="E60" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="31" t="s">
+      <c r="E61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="D62" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="I58" s="47"/>
-    </row>
-    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="29" t="s">
+      <c r="E62" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="I59" s="47"/>
-    </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="31" t="s">
+      <c r="E63" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B64" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="D64" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="I60" s="47"/>
-    </row>
-    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="29" t="s">
+      <c r="E64" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I61" s="47"/>
-    </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="H64" s="45"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="E65" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="H65" s="45"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27"/>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="I62" s="47"/>
-    </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D63" s="29" t="s">
+      <c r="E67" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="31" t="s">
+      <c r="E68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="H68" s="45"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H69" s="45"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="29" t="s">
+      <c r="E70" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I65" s="47"/>
-    </row>
-    <row r="66" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="29"/>
-      <c r="I66" s="47"/>
-    </row>
-    <row r="67" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="29" t="s">
+      <c r="H70" s="45"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="29" t="s">
+      <c r="H71" s="44"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B72" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I68" s="47"/>
-    </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D69" s="29" t="s">
+      <c r="H72" s="45"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="D73" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="I69" s="47"/>
-    </row>
-    <row r="70" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="29" t="s">
+      <c r="E73" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="H73" s="45"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="29" t="s">
+      <c r="H74" s="45"/>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="D75" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I71" s="46"/>
-    </row>
-    <row r="72" spans="1:9" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="H75" s="45"/>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B76" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I72" s="47"/>
-    </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="31" t="s">
+      <c r="H76" s="45"/>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D77" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I73" s="47"/>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="29" t="s">
+      <c r="H77" s="45"/>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I74" s="47"/>
-    </row>
-    <row r="75" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="31" t="s">
+      <c r="F78" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="H78" s="45"/>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B79" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="I75" s="47"/>
-    </row>
-    <row r="76" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B76" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="29" t="s">
+      <c r="E79" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="H79" s="45"/>
+    </row>
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="I76" s="47"/>
-    </row>
-    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="31" t="s">
+      <c r="H80" s="45"/>
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="E81" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="H81" s="45"/>
+    </row>
+    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="I77" s="47"/>
-    </row>
-    <row r="78" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="29" t="s">
+      <c r="E82" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="H82" s="45"/>
+    </row>
+    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="D83" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="I78" s="47"/>
-    </row>
-    <row r="79" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="29" t="s">
+      <c r="E83" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="H83" s="45"/>
+    </row>
+    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="29" t="s">
+      <c r="E84" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I80" s="47"/>
-    </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="29" t="s">
+      <c r="H84" s="45"/>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B85" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I81" s="47"/>
-    </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D82" s="29" t="s">
+      <c r="F85" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="H85" s="45"/>
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B86" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I82" s="47"/>
-    </row>
-    <row r="83" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="31" t="s">
+      <c r="E86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="H86" s="45"/>
+    </row>
+    <row r="87" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B87" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I83" s="47"/>
-    </row>
-    <row r="84" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" s="29" t="s">
+      <c r="H87" s="45"/>
+    </row>
+    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="1:16" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="29" t="s">
+      <c r="H88" s="45"/>
+    </row>
+    <row r="89" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B89" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="D89" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I85" s="47"/>
-    </row>
-    <row r="86" spans="1:16" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="29" t="s">
+      <c r="H89" s="45"/>
+    </row>
+    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="27"/>
+      <c r="H90" s="45"/>
+    </row>
+    <row r="91" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B91" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I86" s="47"/>
-    </row>
-    <row r="87" spans="1:16" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D87" s="29" t="s">
+      <c r="H91" s="45"/>
+    </row>
+    <row r="92" spans="1:9" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B92" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="D92" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="I87" s="47"/>
-    </row>
-    <row r="88" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D88" s="29" t="s">
+      <c r="E92" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="H92" s="44"/>
+    </row>
+    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="I88" s="47"/>
-    </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B89" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="31" t="s">
+      <c r="E93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D89" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I89" s="47"/>
-    </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="29"/>
-      <c r="I90" s="47"/>
-    </row>
-    <row r="91" spans="1:16" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I91" s="47"/>
-    </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B92" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I92" s="46"/>
-    </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I93" s="47"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I94" s="44"/>
-    </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="33" t="s">
-        <v>40</v>
+      <c r="H93" s="45"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H94" s="42"/>
+    </row>
+    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="34" t="s">
-        <v>41</v>
+      <c r="D95" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H95" s="43"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="35" t="s">
-        <v>43</v>
+      <c r="D96" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I96" s="44"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H96" s="42"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="35" t="s">
-        <v>45</v>
+      <c r="D97" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I97" s="44"/>
-    </row>
-    <row r="98" spans="1:9" ht="47.15" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="H97" s="42"/>
+    </row>
+    <row r="98" spans="1:8" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B98" s="20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="35" t="s">
-        <v>26</v>
+      <c r="D98" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="46" t="b">
+      <c r="H98" s="44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B99" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="34" t="s">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B99" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" s="45"/>
+    </row>
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" s="45"/>
+    </row>
+    <row r="101" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H101" s="45"/>
+    </row>
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="28"/>
+      <c r="D102" s="32"/>
+      <c r="H102" s="45"/>
+    </row>
+    <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="H103" s="45"/>
+    </row>
+    <row r="104" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="I99" s="47"/>
-    </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="34" t="s">
+      <c r="E104" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="H104" s="45"/>
+    </row>
+    <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="I100" s="47"/>
-    </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="H105" s="45"/>
+    </row>
+    <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="D106" s="32"/>
+      <c r="H106" s="45"/>
+    </row>
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B107" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="30"/>
-      <c r="D102" s="34"/>
-      <c r="I102" s="47"/>
-    </row>
-    <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D103" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I103" s="47"/>
-    </row>
-    <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="34" t="s">
+      <c r="H107" s="45"/>
+    </row>
+    <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I104" s="47"/>
-    </row>
-    <row r="105" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D105" s="34" t="s">
+      <c r="H108" s="45"/>
+    </row>
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="D109" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="I105" s="47"/>
-    </row>
-    <row r="106" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="30"/>
-      <c r="D106" s="34"/>
-      <c r="I106" s="47"/>
-    </row>
-    <row r="107" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B107" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D107" s="34" t="s">
+      <c r="E109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="H109" s="45"/>
+    </row>
+    <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="I107" s="47"/>
-    </row>
-    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D108" s="34" t="s">
+      <c r="E110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H110" s="45"/>
+    </row>
+    <row r="111" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="H111" s="45"/>
+    </row>
+    <row r="112" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="I108" s="47"/>
-    </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="H112" s="45"/>
+    </row>
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B113" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="D113" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="I109" s="47"/>
-    </row>
-    <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="34" t="s">
+      <c r="E113" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I110" s="47"/>
-    </row>
-    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="H113" s="45"/>
+    </row>
+    <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="E114" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="H114" s="45"/>
+    </row>
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="28"/>
+      <c r="D115" s="32"/>
+      <c r="H115" s="45"/>
+    </row>
+    <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="I111" s="47"/>
-    </row>
-    <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D112" s="34" t="s">
+      <c r="E116" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="H116" s="44"/>
+    </row>
+    <row r="117" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="I112" s="47"/>
-    </row>
-    <row r="113" spans="1:9" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="H117" s="45"/>
+    </row>
+    <row r="118" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D118" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="H118" s="45"/>
+    </row>
+    <row r="119" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="I113" s="47"/>
-    </row>
-    <row r="114" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="34" t="s">
+      <c r="E119" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I114" s="47"/>
-    </row>
-    <row r="115" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B115" s="30"/>
-      <c r="D115" s="34"/>
-      <c r="I115" s="47"/>
-    </row>
-    <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D116" s="34" t="s">
+      <c r="H119" s="45"/>
+    </row>
+    <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I116" s="46"/>
-    </row>
-    <row r="117" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D117" s="34" t="s">
+      <c r="H120" s="44"/>
+    </row>
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="B121" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I117" s="47"/>
-    </row>
-    <row r="118" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D118" s="34" t="s">
+      <c r="H121" s="45"/>
+    </row>
+    <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="D122" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="I118" s="47"/>
-    </row>
-    <row r="119" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="34" t="s">
+      <c r="E122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="H122" s="45"/>
+    </row>
+    <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I119" s="47"/>
-    </row>
-    <row r="120" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D120" s="34" t="s">
+      <c r="H123" s="45"/>
+    </row>
+    <row r="124" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="D124" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I120" s="46"/>
-    </row>
-    <row r="121" spans="1:9" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="H124" s="45"/>
+    </row>
+    <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="28"/>
+      <c r="D125" s="32"/>
+      <c r="H125" s="45"/>
+    </row>
+    <row r="126" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B126" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I121" s="47"/>
-    </row>
-    <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="H126" s="45"/>
+    </row>
+    <row r="127" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D127" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I122" s="47"/>
-    </row>
-    <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="34" t="s">
+      <c r="H127" s="45"/>
+    </row>
+    <row r="128" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I123" s="47"/>
-    </row>
-    <row r="124" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D124" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="H128" s="45"/>
+    </row>
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="I124" s="47"/>
-    </row>
-    <row r="125" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="30"/>
-      <c r="D125" s="34"/>
-      <c r="I125" s="47"/>
-    </row>
-    <row r="126" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B126" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D126" s="34" t="s">
+      <c r="E129" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I126" s="47"/>
-    </row>
-    <row r="127" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="2" t="s">
+      <c r="H129" s="45"/>
+    </row>
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="28"/>
+      <c r="D130" s="32"/>
+      <c r="H130" s="45"/>
+    </row>
+    <row r="131" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="D127" s="34" t="s">
+      <c r="E131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="H131" s="45"/>
+    </row>
+    <row r="132" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="I127" s="47"/>
-    </row>
-    <row r="128" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="34" t="s">
+      <c r="E132" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="H132" s="45"/>
+    </row>
+    <row r="133" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="D133" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I128" s="47"/>
-    </row>
-    <row r="129" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B129" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D129" s="34" t="s">
+      <c r="E133" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="H133" s="45"/>
+    </row>
+    <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="I129" s="47"/>
-    </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="30"/>
-      <c r="D130" s="34"/>
-      <c r="I130" s="47"/>
-    </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D131" s="34" t="s">
+      <c r="E134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H134" s="45"/>
+    </row>
+    <row r="135" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B135" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I131" s="47"/>
-    </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D132" s="34" t="s">
+      <c r="F135" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="H135" s="45"/>
+    </row>
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B136" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="I132" s="47"/>
-    </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D133" s="34" t="s">
+      <c r="H136" s="45"/>
+    </row>
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B137" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I133" s="47"/>
-    </row>
-    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D134" s="34" t="s">
+      <c r="H137" s="45"/>
+    </row>
+    <row r="138" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I134" s="47"/>
-    </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B135" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="34" t="s">
+      <c r="H138" s="45"/>
+    </row>
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B139" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="D139" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I135" s="47"/>
-    </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B136" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" s="34" t="s">
+      <c r="H139" s="45"/>
+    </row>
+    <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" s="28"/>
+      <c r="D140" s="32"/>
+      <c r="H140" s="45"/>
+    </row>
+    <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H141" s="44"/>
+    </row>
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="B142" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H142" s="45"/>
+    </row>
+    <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H143" s="45"/>
+    </row>
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B144" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H144" s="45"/>
+    </row>
+    <row r="145" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B145" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H145" s="45"/>
+    </row>
+    <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H146" s="45"/>
+    </row>
+    <row r="147" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="B147" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I136" s="47"/>
-    </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B137" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D137" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I137" s="47"/>
-    </row>
-    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D138" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="H147" s="45"/>
+    </row>
+    <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="I138" s="47"/>
-    </row>
-    <row r="139" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B139" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D139" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I139" s="47"/>
-    </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B140" s="30"/>
-      <c r="D140" s="34"/>
-      <c r="I140" s="47"/>
-    </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D141" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I141" s="46"/>
-    </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
-      <c r="B142" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D142" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I142" s="47"/>
-    </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I143" s="47"/>
-    </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B144" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D144" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I144" s="47"/>
-    </row>
-    <row r="145" spans="2:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B145" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I145" s="47"/>
-    </row>
-    <row r="146" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I146" s="47"/>
-    </row>
-    <row r="147" spans="2:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="B147" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I147" s="47"/>
-    </row>
-    <row r="148" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D148" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I148" s="47"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I149" s="44"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I150" s="44"/>
+      <c r="H148" s="45"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="42"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5485,53 +5415,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5557,3697 +5487,3697 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9196,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -9279,26 +9209,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -9306,18 +9236,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -9345,523 +9275,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>26</v>
+      <c r="A2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>27</v>
+      <c r="A3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>28</v>
+      <c r="A4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>41</v>
+      <c r="A5" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>43</v>
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>45</v>
+      <c r="A7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>215</v>
+      <c r="A8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>218</v>
+      <c r="A9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>305</v>
+      <c r="A47" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>51</v>
+      <c r="A48" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>71</v>
+      <c r="A53" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>73</v>
+      <c r="A54" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="41" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>92</v>
+      <c r="A61" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>94</v>
+      <c r="A62" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="39" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="41" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/femaleClients/forms/femaleClients/femaleClients.xlsx
+++ b/app/config/tables/femaleClients/forms/femaleClients/femaleClients.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="31824" windowHeight="21103" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="31824" windowHeight="21103" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="516">
   <si>
     <t>type</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>randomization</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -3307,7 +3304,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -3319,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3384,14 +3381,14 @@
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="46"/>
@@ -3402,36 +3399,36 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:9" s="19" customFormat="1" ht="125.7" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="H8" s="41"/>
     </row>
@@ -3440,13 +3437,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="41" t="b">
         <v>1</v>
@@ -3454,17 +3451,17 @@
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="41"/>
     </row>
@@ -3477,10 +3474,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="41" t="b">
         <v>1</v>
@@ -3491,16 +3488,16 @@
         <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="41" t="b">
         <v>1</v>
@@ -3512,16 +3509,16 @@
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="16"/>
@@ -3533,41 +3530,41 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="H17" s="40"/>
     </row>
@@ -3576,60 +3573,60 @@
         <v>18</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="16"/>
@@ -3641,16 +3638,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="H23" s="40" t="b">
         <v>1</v>
@@ -3662,13 +3659,13 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="41" t="b">
         <v>1</v>
@@ -3680,10 +3677,10 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="H25" s="40"/>
     </row>
@@ -3693,10 +3690,10 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="H26" s="40"/>
     </row>
@@ -3705,16 +3702,16 @@
         <v>18</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="H27" s="40" t="b">
         <v>1</v>
@@ -3725,13 +3722,13 @@
         <v>18</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="H28" s="40"/>
     </row>
@@ -3740,97 +3737,97 @@
         <v>18</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="H32" s="41"/>
     </row>
     <row r="33" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="H33" s="41"/>
     </row>
     <row r="34" spans="2:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="H34" s="41"/>
     </row>
     <row r="35" spans="2:9" s="19" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="H35" s="41"/>
     </row>
@@ -3839,16 +3836,16 @@
         <v>18</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="H36" s="41"/>
     </row>
@@ -3861,7 +3858,7 @@
         <v>19</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>14</v>
@@ -3881,7 +3878,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="41" t="b">
         <v>1</v>
@@ -3889,42 +3886,42 @@
     </row>
     <row r="39" spans="2:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="D39" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="H40" s="40"/>
     </row>
     <row r="41" spans="2:9" s="19" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B41" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="H41" s="41"/>
     </row>
@@ -3936,14 +3933,14 @@
     </row>
     <row r="43" spans="2:9" s="19" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B43" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="H43" s="41"/>
     </row>
@@ -3955,14 +3952,14 @@
     </row>
     <row r="45" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3974,23 +3971,23 @@
         <v>6</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H46" s="42"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H47" s="42"/>
     </row>
@@ -4014,27 +4011,27 @@
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B49" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H50" s="45"/>
     </row>
@@ -4043,19 +4040,19 @@
         <v>18</v>
       </c>
       <c r="C51" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="E51" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="28"/>
       <c r="C52" s="29"/>
@@ -4064,14 +4061,14 @@
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="H53" s="45"/>
     </row>
@@ -4080,32 +4077,32 @@
         <v>18</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="28"/>
       <c r="C56" s="29"/>
@@ -4114,14 +4111,14 @@
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B57" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="H57" s="45"/>
     </row>
@@ -4130,26 +4127,26 @@
         <v>18</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="E58" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H59" s="45"/>
     </row>
@@ -4158,26 +4155,26 @@
         <v>18</v>
       </c>
       <c r="C60" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="E60" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="H61" s="45"/>
     </row>
@@ -4186,13 +4183,13 @@
         <v>18</v>
       </c>
       <c r="C62" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="E62" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="H62" s="45"/>
     </row>
@@ -4201,44 +4198,44 @@
         <v>18</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D63" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="H63" s="45"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B64" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="E64" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H65" s="45"/>
     </row>
@@ -4250,14 +4247,14 @@
     </row>
     <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="H67" s="44"/>
     </row>
@@ -4266,13 +4263,13 @@
         <v>18</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H68" s="45"/>
     </row>
@@ -4281,13 +4278,13 @@
         <v>18</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="H69" s="45"/>
     </row>
@@ -4297,26 +4294,26 @@
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="H70" s="45"/>
     </row>
     <row r="71" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="H71" s="44"/>
     </row>
@@ -4325,44 +4322,44 @@
         <v>18</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="H72" s="45"/>
     </row>
     <row r="73" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="E73" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="H73" s="45"/>
     </row>
     <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="H74" s="45"/>
     </row>
@@ -4371,13 +4368,13 @@
         <v>18</v>
       </c>
       <c r="C75" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H75" s="45"/>
     </row>
@@ -4386,13 +4383,13 @@
         <v>18</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="H76" s="45"/>
     </row>
@@ -4401,13 +4398,13 @@
         <v>18</v>
       </c>
       <c r="C77" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="E77" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="H77" s="45"/>
     </row>
@@ -4417,13 +4414,13 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="H78" s="45"/>
     </row>
@@ -4432,24 +4429,24 @@
         <v>18</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="29"/>
       <c r="D80" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H80" s="45"/>
     </row>
@@ -4458,13 +4455,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="H81" s="45"/>
     </row>
@@ -4473,13 +4470,13 @@
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="H82" s="45"/>
     </row>
@@ -4488,13 +4485,13 @@
         <v>18</v>
       </c>
       <c r="C83" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="E83" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H83" s="45"/>
     </row>
@@ -4503,13 +4500,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D84" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="H84" s="45"/>
     </row>
@@ -4518,16 +4515,16 @@
         <v>18</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="H85" s="45"/>
     </row>
@@ -4536,13 +4533,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D86" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="H86" s="45"/>
     </row>
@@ -4551,13 +4548,13 @@
         <v>18</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D87" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="H87" s="45"/>
     </row>
@@ -4566,13 +4563,13 @@
         <v>18</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D88" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="H88" s="45"/>
     </row>
@@ -4581,19 +4578,19 @@
         <v>18</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="E89" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="H89" s="45"/>
     </row>
     <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" s="28"/>
       <c r="C90" s="29"/>
@@ -4602,14 +4599,14 @@
     </row>
     <row r="91" spans="1:9" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B91" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="H91" s="45"/>
     </row>
@@ -4618,26 +4615,26 @@
         <v>18</v>
       </c>
       <c r="C92" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="E92" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="H92" s="44"/>
     </row>
     <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="H93" s="45"/>
     </row>
@@ -4646,14 +4643,14 @@
     </row>
     <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4666,23 +4663,23 @@
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H96" s="42"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H97" s="42"/>
     </row>
@@ -4706,25 +4703,25 @@
     </row>
     <row r="99" spans="1:8" s="2" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
       <c r="B99" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H99" s="45"/>
     </row>
     <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D100" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H100" s="45"/>
     </row>
@@ -4733,19 +4730,19 @@
         <v>18</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="E101" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="28"/>
       <c r="D102" s="32"/>
@@ -4753,13 +4750,13 @@
     </row>
     <row r="103" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="E103" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="H103" s="45"/>
     </row>
@@ -4768,31 +4765,31 @@
         <v>18</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D104" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="H104" s="45"/>
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="H105" s="45"/>
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B106" s="28"/>
       <c r="D106" s="32"/>
@@ -4800,25 +4797,25 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B107" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="H107" s="45"/>
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="H108" s="45"/>
     </row>
@@ -4827,25 +4824,25 @@
         <v>18</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="E109" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="H109" s="45"/>
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="H110" s="45"/>
     </row>
@@ -4854,13 +4851,13 @@
         <v>18</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="E111" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="H111" s="45"/>
     </row>
@@ -4869,49 +4866,49 @@
         <v>18</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D112" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="H112" s="45"/>
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B113" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D113" s="32" t="s">
+      <c r="E113" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="H113" s="45"/>
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="H114" s="45"/>
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="28"/>
       <c r="D115" s="32"/>
@@ -4919,13 +4916,13 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D116" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="H116" s="44"/>
     </row>
@@ -4934,13 +4931,13 @@
         <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D117" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H117" s="45"/>
     </row>
@@ -4949,13 +4946,13 @@
         <v>18</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D118" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="H118" s="45"/>
     </row>
@@ -4964,25 +4961,25 @@
         <v>6</v>
       </c>
       <c r="D119" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="H119" s="45"/>
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D120" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="H120" s="44"/>
     </row>
@@ -4991,43 +4988,43 @@
         <v>18</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D121" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="H121" s="45"/>
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D122" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="32" t="s">
+      <c r="E122" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="H122" s="45"/>
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="H123" s="45"/>
     </row>
@@ -5036,19 +5033,19 @@
         <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D124" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H124" s="45"/>
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" s="28"/>
       <c r="D125" s="32"/>
@@ -5059,13 +5056,13 @@
         <v>18</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D126" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="H126" s="45"/>
     </row>
@@ -5074,13 +5071,13 @@
         <v>18</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D127" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="E127" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="H127" s="45"/>
     </row>
@@ -5089,13 +5086,13 @@
         <v>6</v>
       </c>
       <c r="D128" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="H128" s="45"/>
     </row>
@@ -5104,19 +5101,19 @@
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="H129" s="45"/>
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130" s="28"/>
       <c r="D130" s="32"/>
@@ -5127,13 +5124,13 @@
         <v>18</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D131" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="H131" s="45"/>
     </row>
@@ -5142,13 +5139,13 @@
         <v>18</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D132" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="H132" s="45"/>
     </row>
@@ -5157,46 +5154,46 @@
         <v>18</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="32" t="s">
+      <c r="E133" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H133" s="45"/>
     </row>
     <row r="134" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D134" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="H134" s="45"/>
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B135" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D135" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="H135" s="45"/>
     </row>
@@ -5205,13 +5202,13 @@
         <v>18</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D136" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="H136" s="45"/>
     </row>
@@ -5220,13 +5217,13 @@
         <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D137" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="H137" s="45"/>
     </row>
@@ -5235,13 +5232,13 @@
         <v>18</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D138" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="H138" s="45"/>
     </row>
@@ -5250,19 +5247,19 @@
         <v>18</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D139" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="E139" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="H139" s="45"/>
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B140" s="28"/>
       <c r="D140" s="32"/>
@@ -5270,43 +5267,43 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D141" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="H141" s="44"/>
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="B142" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D142" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="H142" s="45"/>
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D143" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="H143" s="45"/>
     </row>
@@ -5315,67 +5312,67 @@
         <v>18</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D144" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="H144" s="45"/>
     </row>
     <row r="145" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B145" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D145" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="H145" s="45"/>
     </row>
     <row r="146" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H146" s="45"/>
     </row>
     <row r="147" spans="2:8" s="2" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="B147" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D147" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="H147" s="45"/>
     </row>
     <row r="148" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="H148" s="45"/>
     </row>
@@ -5400,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5415,53 +5412,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" t="s">
         <v>504</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>505</v>
-      </c>
-      <c r="C1" t="s">
-        <v>506</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" t="s">
         <v>508</v>
       </c>
-      <c r="D2" t="s">
-        <v>509</v>
-      </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5474,8 +5471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -5487,13 +5484,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5520,3664 +5517,3664 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="62.85" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9209,13 +9206,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -9223,12 +9220,12 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>20140512</v>
@@ -9236,18 +9233,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -9308,10 +9305,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9319,23 +9316,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9343,15 +9340,15 @@
         <v>18</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9359,23 +9356,23 @@
         <v>18</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9383,15 +9380,15 @@
         <v>18</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9399,7 +9396,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9407,23 +9404,23 @@
         <v>18</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9431,7 +9428,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9439,7 +9436,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9447,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9455,23 +9452,23 @@
         <v>18</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9479,7 +9476,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9487,7 +9484,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9495,7 +9492,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9503,7 +9500,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9511,7 +9508,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9519,7 +9516,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9527,7 +9524,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9535,23 +9532,23 @@
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9559,7 +9556,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9567,7 +9564,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9575,7 +9572,7 @@
         <v>18</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9583,23 +9580,23 @@
         <v>18</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9607,31 +9604,31 @@
         <v>18</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9639,7 +9636,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -9647,7 +9644,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9655,7 +9652,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9663,7 +9660,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9671,7 +9668,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9679,23 +9676,23 @@
         <v>18</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9703,31 +9700,31 @@
         <v>18</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -9735,7 +9732,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -9743,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -9751,7 +9748,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -9759,7 +9756,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -9767,7 +9764,7 @@
         <v>18</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -9775,23 +9772,23 @@
         <v>18</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
